--- a/resultados/resultados_slot02.xlsx
+++ b/resultados/resultados_slot02.xlsx
@@ -501,7 +501,7 @@
         <v>81</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02272510528564453</v>
+        <v>0.02243733406066895</v>
       </c>
       <c r="G2" t="n">
         <v>9.73215531173906e-06</v>
@@ -541,7 +541,7 @@
         <v>34</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0009019374847412109</v>
+        <v>0.00104832649230957</v>
       </c>
       <c r="G3" t="n">
         <v>4.081601348667869e-06</v>
@@ -581,7 +581,7 @@
         <v>64</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004642248153686523</v>
+        <v>0.005249500274658203</v>
       </c>
       <c r="G4" t="n">
         <v>9.733924982666186e-06</v>
@@ -621,7 +621,7 @@
         <v>60</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004427194595336914</v>
+        <v>0.005000829696655273</v>
       </c>
       <c r="G5" t="n">
         <v>9.704257865022709e-06</v>
@@ -661,7 +661,7 @@
         <v>10000</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6859230995178223</v>
+        <v>0.8480956554412842</v>
       </c>
       <c r="G6" t="n">
         <v>2.14889969106106</v>
@@ -701,7 +701,7 @@
         <v>10000</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6436529159545898</v>
+        <v>0.7649157047271729</v>
       </c>
       <c r="G7" t="n">
         <v>2.148901966431707</v>
@@ -741,7 +741,7 @@
         <v>64</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004198312759399414</v>
+        <v>0.004691123962402344</v>
       </c>
       <c r="G8" t="n">
         <v>9.739966914164571e-06</v>
@@ -781,7 +781,7 @@
         <v>28</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003365039825439453</v>
+        <v>0.003659963607788086</v>
       </c>
       <c r="G9" t="n">
         <v>8.577460945123592e-06</v>
@@ -821,7 +821,7 @@
         <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0003259181976318359</v>
+        <v>0.0003418922424316406</v>
       </c>
       <c r="G10" t="n">
         <v>9.27469694780164e-06</v>
@@ -861,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0003137588500976562</v>
+        <v>0.0003235340118408203</v>
       </c>
       <c r="G11" t="n">
         <v>4.792716043671166e-06</v>
@@ -901,7 +901,7 @@
         <v>29</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001667499542236328</v>
+        <v>0.00193333625793457</v>
       </c>
       <c r="G12" t="n">
         <v>5.891627832511568e-06</v>
@@ -941,7 +941,7 @@
         <v>29</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001610517501831055</v>
+        <v>0.00171971321105957</v>
       </c>
       <c r="G13" t="n">
         <v>5.470969127800397e-06</v>
@@ -981,7 +981,7 @@
         <v>10000</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6179964542388916</v>
+        <v>0.7133858203887939</v>
       </c>
       <c r="G14" t="n">
         <v>7676117356.288296</v>
@@ -1021,7 +1021,7 @@
         <v>10000</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5862889289855957</v>
+        <v>0.8357281684875488</v>
       </c>
       <c r="G15" t="n">
         <v>7676241894.463868</v>
@@ -1061,7 +1061,7 @@
         <v>29</v>
       </c>
       <c r="F16" t="n">
-        <v>0.001584053039550781</v>
+        <v>0.001869916915893555</v>
       </c>
       <c r="G16" t="n">
         <v>5.891708959192075e-06</v>
@@ -1101,7 +1101,7 @@
         <v>28</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002969741821289062</v>
+        <v>0.003310680389404297</v>
       </c>
       <c r="G17" t="n">
         <v>7.134422528319002e-06</v>
@@ -1141,7 +1141,7 @@
         <v>99</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0483710765838623</v>
+        <v>0.05811643600463867</v>
       </c>
       <c r="G18" t="n">
         <v>9.887257321542167e-06</v>
@@ -1181,7 +1181,7 @@
         <v>42</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0206596851348877</v>
+        <v>0.02189469337463379</v>
       </c>
       <c r="G19" t="n">
         <v>1.125279261864306e-07</v>
@@ -1221,7 +1221,7 @@
         <v>69</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04253506660461426</v>
+        <v>0.04319477081298828</v>
       </c>
       <c r="G20" t="n">
         <v>9.830003325958919e-06</v>
@@ -1261,7 +1261,7 @@
         <v>59</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0588991641998291</v>
+        <v>0.03798365592956543</v>
       </c>
       <c r="G21" t="n">
         <v>9.851742839941448e-06</v>
@@ -1301,7 +1301,7 @@
         <v>10000</v>
       </c>
       <c r="F22" t="n">
-        <v>6.101356029510498</v>
+        <v>6.750818967819214</v>
       </c>
       <c r="G22" t="n">
         <v>2.266475662339114</v>
@@ -1341,7 +1341,7 @@
         <v>10000</v>
       </c>
       <c r="F23" t="n">
-        <v>5.680122137069702</v>
+        <v>6.466393709182739</v>
       </c>
       <c r="G23" t="n">
         <v>2.266478037850065</v>
@@ -1381,7 +1381,7 @@
         <v>69</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03984260559082031</v>
+        <v>0.04575037956237793</v>
       </c>
       <c r="G24" t="n">
         <v>9.841592462938373e-06</v>
@@ -1421,7 +1421,7 @@
         <v>31</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01998662948608398</v>
+        <v>0.02211833000183105</v>
       </c>
       <c r="G25" t="n">
         <v>8.534194915604358e-06</v>
@@ -1461,7 +1461,7 @@
         <v>38</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0005133152008056641</v>
+        <v>0.000576019287109375</v>
       </c>
       <c r="G26" t="n">
         <v>8.936504241502064e-06</v>
@@ -1501,7 +1501,7 @@
         <v>27</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0004301071166992188</v>
+        <v>0.0005574226379394531</v>
       </c>
       <c r="G27" t="n">
         <v>9.506735145473922e-06</v>
@@ -1541,7 +1541,7 @@
         <v>40</v>
       </c>
       <c r="F28" t="n">
-        <v>0.002402782440185547</v>
+        <v>0.003183126449584961</v>
       </c>
       <c r="G28" t="n">
         <v>7.558275077303443e-06</v>
@@ -1581,7 +1581,7 @@
         <v>39</v>
       </c>
       <c r="F29" t="n">
-        <v>0.002278327941894531</v>
+        <v>0.00381922721862793</v>
       </c>
       <c r="G29" t="n">
         <v>8.936521690750358e-06</v>
@@ -1621,7 +1621,7 @@
         <v>10000</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6291685104370117</v>
+        <v>0.7368266582489014</v>
       </c>
       <c r="G30" t="n">
         <v>396254.5145425995</v>
@@ -1661,7 +1661,7 @@
         <v>10000</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6162905693054199</v>
+        <v>0.8324117660522461</v>
       </c>
       <c r="G31" t="n">
         <v>396257.576511647</v>
@@ -1701,7 +1701,7 @@
         <v>40</v>
       </c>
       <c r="F32" t="n">
-        <v>0.002574682235717773</v>
+        <v>0.002626657485961914</v>
       </c>
       <c r="G32" t="n">
         <v>7.558722902285141e-06</v>
@@ -1741,7 +1741,7 @@
         <v>35</v>
       </c>
       <c r="F33" t="n">
-        <v>0.004403114318847656</v>
+        <v>0.004228591918945312</v>
       </c>
       <c r="G33" t="n">
         <v>8.929744223888457e-06</v>
@@ -1781,7 +1781,7 @@
         <v>124</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07316994667053223</v>
+        <v>0.04831242561340332</v>
       </c>
       <c r="G34" t="n">
         <v>9.976989305980093e-06</v>
@@ -1821,7 +1821,7 @@
         <v>49</v>
       </c>
       <c r="F35" t="n">
-        <v>0.03512787818908691</v>
+        <v>0.01900720596313477</v>
       </c>
       <c r="G35" t="n">
         <v>3.579918195761039e-06</v>
@@ -1861,7 +1861,7 @@
         <v>57</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0367426872253418</v>
+        <v>0.03296995162963867</v>
       </c>
       <c r="G36" t="n">
         <v>9.793813339240824e-06</v>
@@ -1901,7 +1901,7 @@
         <v>34</v>
       </c>
       <c r="F37" t="n">
-        <v>0.01500940322875977</v>
+        <v>0.01739120483398438</v>
       </c>
       <c r="G37" t="n">
         <v>9.593313785388912e-06</v>
@@ -1941,7 +1941,7 @@
         <v>10000</v>
       </c>
       <c r="F38" t="n">
-        <v>4.733852386474609</v>
+        <v>5.365745782852173</v>
       </c>
       <c r="G38" t="n">
         <v>2.255334129450528</v>
@@ -1981,7 +1981,7 @@
         <v>10000</v>
       </c>
       <c r="F39" t="n">
-        <v>4.74880051612854</v>
+        <v>5.801689386367798</v>
       </c>
       <c r="G39" t="n">
         <v>2.255331447548293</v>
@@ -2021,7 +2021,7 @@
         <v>57</v>
       </c>
       <c r="F40" t="n">
-        <v>0.02549862861633301</v>
+        <v>0.04437994956970215</v>
       </c>
       <c r="G40" t="n">
         <v>9.830492083586385e-06</v>
@@ -2061,7 +2061,7 @@
         <v>30</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0158231258392334</v>
+        <v>0.02976846694946289</v>
       </c>
       <c r="G41" t="n">
         <v>9.124748359640215e-06</v>
@@ -2101,7 +2101,7 @@
         <v>134</v>
       </c>
       <c r="F42" t="n">
-        <v>0.001472234725952148</v>
+        <v>0.003109931945800781</v>
       </c>
       <c r="G42" t="n">
         <v>9.821227875599703e-06</v>
@@ -2141,7 +2141,7 @@
         <v>85</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0008943080902099609</v>
+        <v>0.001676321029663086</v>
       </c>
       <c r="G43" t="n">
         <v>9.676802385755104e-06</v>
@@ -2181,7 +2181,7 @@
         <v>20</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001030445098876953</v>
+        <v>0.002041339874267578</v>
       </c>
       <c r="G44" t="n">
         <v>9.879920810874217e-06</v>
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0008563995361328125</v>
+        <v>0.001510381698608398</v>
       </c>
       <c r="G45" t="n">
         <v>3.027903214592014e-06</v>
@@ -2261,7 +2261,7 @@
         <v>10000</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5657646656036377</v>
+        <v>0.7382316589355469</v>
       </c>
       <c r="G46" t="n">
         <v>138140350.1100419</v>
@@ -2301,7 +2301,7 @@
         <v>10000</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5533008575439453</v>
+        <v>0.7120137214660645</v>
       </c>
       <c r="G47" t="n">
         <v>138142523.8705322</v>
@@ -2341,7 +2341,7 @@
         <v>20</v>
       </c>
       <c r="F48" t="n">
-        <v>0.001000642776489258</v>
+        <v>0.001052141189575195</v>
       </c>
       <c r="G48" t="n">
         <v>9.927615749139931e-06</v>
@@ -2381,7 +2381,7 @@
         <v>19</v>
       </c>
       <c r="F49" t="n">
-        <v>0.001815557479858398</v>
+        <v>0.001925230026245117</v>
       </c>
       <c r="G49" t="n">
         <v>7.971580623049999e-06</v>
@@ -2421,7 +2421,7 @@
         <v>186</v>
       </c>
       <c r="F50" t="n">
-        <v>1.492180824279785</v>
+        <v>1.738126516342163</v>
       </c>
       <c r="G50" t="n">
         <v>9.947339646055191e-06</v>
@@ -2461,7 +2461,7 @@
         <v>81</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6018486022949219</v>
+        <v>0.7759177684783936</v>
       </c>
       <c r="G51" t="n">
         <v>1.132438499492028e-06</v>
@@ -2501,7 +2501,7 @@
         <v>45</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3340218067169189</v>
+        <v>0.4266386032104492</v>
       </c>
       <c r="G52" t="n">
         <v>8.740453611586926e-06</v>
@@ -2541,7 +2541,7 @@
         <v>42</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3143842220306396</v>
+        <v>0.3915472030639648</v>
       </c>
       <c r="G53" t="n">
         <v>9.654592542050077e-06</v>
@@ -2581,7 +2581,7 @@
         <v>10000</v>
       </c>
       <c r="F54" t="n">
-        <v>76.04465985298157</v>
+        <v>149.0363204479218</v>
       </c>
       <c r="G54" t="n">
         <v>2.55118444448006</v>
@@ -2621,7 +2621,7 @@
         <v>10000</v>
       </c>
       <c r="F55" t="n">
-        <v>74.92087149620056</v>
+        <v>140.9708204269409</v>
       </c>
       <c r="G55" t="n">
         <v>2.551187704666902</v>
@@ -2661,7 +2661,7 @@
         <v>45</v>
       </c>
       <c r="F56" t="n">
-        <v>0.331303596496582</v>
+        <v>0.771181583404541</v>
       </c>
       <c r="G56" t="n">
         <v>8.746262927751544e-06</v>
@@ -2701,7 +2701,7 @@
         <v>33</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2535400390625</v>
+        <v>0.5841519832611084</v>
       </c>
       <c r="G57" t="n">
         <v>9.483141812830326e-06</v>
@@ -2741,7 +2741,7 @@
         <v>152</v>
       </c>
       <c r="F58" t="n">
-        <v>0.07592248916625977</v>
+        <v>0.2263457775115967</v>
       </c>
       <c r="G58" t="n">
         <v>9.889266292128169e-06</v>
@@ -2781,7 +2781,7 @@
         <v>57</v>
       </c>
       <c r="F59" t="n">
-        <v>0.02855539321899414</v>
+        <v>0.09359431266784668</v>
       </c>
       <c r="G59" t="n">
         <v>9.119336362863703e-06</v>
@@ -2821,7 +2821,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="n">
-        <v>0.02633547782897949</v>
+        <v>0.08234190940856934</v>
       </c>
       <c r="G60" t="n">
         <v>8.792294869092705e-06</v>
@@ -2861,7 +2861,7 @@
         <v>39</v>
       </c>
       <c r="F61" t="n">
-        <v>0.02234125137329102</v>
+        <v>0.07156920433044434</v>
       </c>
       <c r="G61" t="n">
         <v>8.505854861909609e-06</v>
@@ -2901,7 +2901,7 @@
         <v>10000</v>
       </c>
       <c r="F62" t="n">
-        <v>6.024673700332642</v>
+        <v>18.4614577293396</v>
       </c>
       <c r="G62" t="n">
         <v>2.296014307841175</v>
@@ -2941,7 +2941,7 @@
         <v>10000</v>
       </c>
       <c r="F63" t="n">
-        <v>5.855906963348389</v>
+        <v>12.33190655708313</v>
       </c>
       <c r="G63" t="n">
         <v>2.296015645046974</v>
@@ -2981,7 +2981,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="n">
-        <v>0.02585911750793457</v>
+        <v>0.02888798713684082</v>
       </c>
       <c r="G64" t="n">
         <v>8.824296276423648e-06</v>
@@ -3021,7 +3021,7 @@
         <v>33</v>
       </c>
       <c r="F65" t="n">
-        <v>0.02160859107971191</v>
+        <v>0.02930974960327148</v>
       </c>
       <c r="G65" t="n">
         <v>9.949673297135612e-06</v>
@@ -3061,7 +3061,7 @@
         <v>28</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0003011226654052734</v>
+        <v>0.0003907680511474609</v>
       </c>
       <c r="G66" t="n">
         <v>7.81621487968894e-06</v>
@@ -3101,7 +3101,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0002126693725585938</v>
+        <v>0.0002505779266357422</v>
       </c>
       <c r="G67" t="n">
         <v>3.548993141436374e-06</v>
@@ -3141,7 +3141,7 @@
         <v>30</v>
       </c>
       <c r="F68" t="n">
-        <v>0.001599311828613281</v>
+        <v>0.001903772354125977</v>
       </c>
       <c r="G68" t="n">
         <v>8.632747851735018e-06</v>
@@ -3181,7 +3181,7 @@
         <v>30</v>
       </c>
       <c r="F69" t="n">
-        <v>0.00155329704284668</v>
+        <v>0.001888275146484375</v>
       </c>
       <c r="G69" t="n">
         <v>7.532202421988303e-06</v>
@@ -3221,7 +3221,7 @@
         <v>10000</v>
       </c>
       <c r="F70" t="n">
-        <v>0.567162036895752</v>
+        <v>0.7214193344116211</v>
       </c>
       <c r="G70" t="n">
         <v>1856.762476066276</v>
@@ -3261,7 +3261,7 @@
         <v>10000</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5458333492279053</v>
+        <v>0.6988997459411621</v>
       </c>
       <c r="G71" t="n">
         <v>1856.762220147056</v>
@@ -3301,7 +3301,7 @@
         <v>30</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002072334289550781</v>
+        <v>0.00187373161315918</v>
       </c>
       <c r="G72" t="n">
         <v>8.633152723694107e-06</v>
@@ -3341,7 +3341,7 @@
         <v>27</v>
       </c>
       <c r="F73" t="n">
-        <v>0.003789186477661133</v>
+        <v>0.003013134002685547</v>
       </c>
       <c r="G73" t="n">
         <v>9.650197386537996e-06</v>
@@ -3381,7 +3381,7 @@
         <v>18</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0003309249877929688</v>
+        <v>0.0004205703735351562</v>
       </c>
       <c r="G74" t="n">
         <v>9.489378240072852e-06</v>
@@ -3421,7 +3421,7 @@
         <v>14</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0002691745758056641</v>
+        <v>0.0003066062927246094</v>
       </c>
       <c r="G75" t="n">
         <v>9.70013921488314e-06</v>
@@ -3461,7 +3461,7 @@
         <v>19</v>
       </c>
       <c r="F76" t="n">
-        <v>0.001099109649658203</v>
+        <v>0.001373529434204102</v>
       </c>
       <c r="G76" t="n">
         <v>9.483721802400555e-06</v>
@@ -3501,7 +3501,7 @@
         <v>18</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0009047985076904297</v>
+        <v>0.001624584197998047</v>
       </c>
       <c r="G77" t="n">
         <v>9.595336508216205e-06</v>
@@ -3541,7 +3541,7 @@
         <v>10000</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6282813549041748</v>
+        <v>0.8885221481323242</v>
       </c>
       <c r="G78" t="n">
         <v>600650.488076365</v>
@@ -3581,7 +3581,7 @@
         <v>10000</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5699558258056641</v>
+        <v>0.811908483505249</v>
       </c>
       <c r="G79" t="n">
         <v>600660.1398921028</v>
@@ -3621,7 +3621,7 @@
         <v>19</v>
       </c>
       <c r="F80" t="n">
-        <v>0.001007318496704102</v>
+        <v>0.001106977462768555</v>
       </c>
       <c r="G80" t="n">
         <v>9.484505582614429e-06</v>
@@ -3661,7 +3661,7 @@
         <v>16</v>
       </c>
       <c r="F81" t="n">
-        <v>0.001496315002441406</v>
+        <v>0.001661539077758789</v>
       </c>
       <c r="G81" t="n">
         <v>8.818254907245144e-06</v>

--- a/resultados/resultados_slot02.xlsx
+++ b/resultados/resultados_slot02.xlsx
@@ -496,7 +496,7 @@
         <v>81</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02802085876464844</v>
+        <v>0.009785652160644531</v>
       </c>
       <c r="G2" t="n">
         <v>443</v>
@@ -533,7 +533,7 @@
         <v>34</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001202106475830078</v>
+        <v>0.001904010772705078</v>
       </c>
       <c r="G3" t="n">
         <v>443</v>
@@ -555,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bcsstk03.mtx</t>
+          <t>bcsstk01.mtx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,16 +564,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>199732738576.2932</v>
+        <v>3014181127.26153</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000461578369140625</v>
+        <v>0.003325700759887695</v>
       </c>
       <c r="G4" t="n">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bcsstk03.mtx</t>
+          <t>bcsstk01.mtx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,16 +601,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>199734791972.886</v>
+        <v>3015647293.232991</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0004107952117919922</v>
+        <v>0.002544403076171875</v>
       </c>
       <c r="G5" t="n">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bcspwr07.mtx</t>
+          <t>bcspwr10.mtx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5.664183085589989</v>
+        <v>6.809359881800338</v>
       </c>
       <c r="E6" t="n">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08178949356079102</v>
+        <v>2.760515213012695</v>
       </c>
       <c r="G6" t="n">
-        <v>1612</v>
+        <v>5300</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bcspwr07.mtx</t>
+          <t>bcspwr10.mtx</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,16 +675,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5.667241609924945</v>
+        <v>6.836792424603274</v>
       </c>
       <c r="E7" t="n">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03520965576171875</v>
+        <v>1.163532972335815</v>
       </c>
       <c r="G7" t="n">
-        <v>1612</v>
+        <v>5300</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bcsstk05.mtx</t>
+          <t>bcspwr06.mtx</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -712,20 +712,20 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6197043.861659037</v>
+        <v>5.618009280534263</v>
       </c>
       <c r="E8" t="n">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00060272216796875</v>
+        <v>0.1332681179046631</v>
       </c>
       <c r="G8" t="n">
-        <v>153</v>
+        <v>1454</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bcsstk05.mtx</t>
+          <t>bcspwr06.mtx</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -749,20 +749,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6196986.835041617</v>
+        <v>5.622463254476138</v>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0004379749298095703</v>
+        <v>0.05295443534851074</v>
       </c>
       <c r="G9" t="n">
-        <v>153</v>
+        <v>1454</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bcspwr06.mtx</t>
+          <t>bcspwr07.mtx</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -786,16 +786,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5.618009280534263</v>
+        <v>5.664183085589989</v>
       </c>
       <c r="E10" t="n">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07865357398986816</v>
+        <v>0.131089448928833</v>
       </c>
       <c r="G10" t="n">
-        <v>1454</v>
+        <v>1612</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bcspwr06.mtx</t>
+          <t>bcspwr07.mtx</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -823,16 +823,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5.622463254476138</v>
+        <v>5.667241609924945</v>
       </c>
       <c r="E11" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03091955184936523</v>
+        <v>0.05905938148498535</v>
       </c>
       <c r="G11" t="n">
-        <v>1454</v>
+        <v>1612</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bcsstk01.mtx</t>
+          <t>bcsstk03.mtx</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -860,16 +860,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3014181127.26153</v>
+        <v>199732738576.2932</v>
       </c>
       <c r="E12" t="n">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00269007682800293</v>
+        <v>0.001411199569702148</v>
       </c>
       <c r="G12" t="n">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bcsstk01.mtx</t>
+          <t>bcsstk03.mtx</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -897,16 +897,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3015647293.232991</v>
+        <v>199734791972.886</v>
       </c>
       <c r="E13" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0009474754333496094</v>
+        <v>0.001338720321655273</v>
       </c>
       <c r="G13" t="n">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bcspwr10.mtx</t>
+          <t>bcsstk02.mtx</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -934,20 +934,20 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6.809359881800338</v>
+        <v>18225.28861825787</v>
       </c>
       <c r="E14" t="n">
-        <v>186</v>
+        <v>28</v>
       </c>
       <c r="F14" t="n">
-        <v>2.383480072021484</v>
+        <v>0.001276731491088867</v>
       </c>
       <c r="G14" t="n">
-        <v>5300</v>
+        <v>66</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>bcspwr10.mtx</t>
+          <t>bcsstk02.mtx</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -971,20 +971,20 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6.836792424603274</v>
+        <v>18224.71635802562</v>
       </c>
       <c r="E15" t="n">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9942524433135986</v>
+        <v>0.000827789306640625</v>
       </c>
       <c r="G15" t="n">
-        <v>5300</v>
+        <v>66</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bcspwr08.mtx</t>
+          <t>bcsstk05.mtx</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1008,20 +1008,20 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5.783741344069723</v>
+        <v>6197043.861659037</v>
       </c>
       <c r="E16" t="n">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1690666675567627</v>
+        <v>0.002539157867431641</v>
       </c>
       <c r="G16" t="n">
-        <v>1624</v>
+        <v>153</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bcspwr08.mtx</t>
+          <t>bcsstk05.mtx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1045,20 +1045,20 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5.794950776491883</v>
+        <v>6196986.835041617</v>
       </c>
       <c r="E17" t="n">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06436491012573242</v>
+        <v>0.001700401306152344</v>
       </c>
       <c r="G17" t="n">
-        <v>1624</v>
+        <v>153</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bcsstk02.mtx</t>
+          <t>bcspwr08.mtx</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1082,20 +1082,20 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>18225.28861825787</v>
+        <v>5.783741344069723</v>
       </c>
       <c r="E18" t="n">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0006778240203857422</v>
+        <v>0.209707498550415</v>
       </c>
       <c r="G18" t="n">
-        <v>66</v>
+        <v>1624</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bcsstk02.mtx</t>
+          <t>bcspwr08.mtx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1119,20 +1119,20 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>18224.71635802562</v>
+        <v>5.794950776491883</v>
       </c>
       <c r="E19" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0004024505615234375</v>
+        <v>0.07850742340087891</v>
       </c>
       <c r="G19" t="n">
-        <v>66</v>
+        <v>1624</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1162,7 +1162,7 @@
         <v>18</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0004055500030517578</v>
+        <v>0.001143455505371094</v>
       </c>
       <c r="G20" t="n">
         <v>132</v>
@@ -1199,7 +1199,7 @@
         <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0002424716949462891</v>
+        <v>0.0007519721984863281</v>
       </c>
       <c r="G21" t="n">
         <v>132</v>
